--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1965654.185818006</v>
+        <v>1960366.070323233</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892732</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8831007.655152235</v>
+        <v>8829237.716980979</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>70.13066324361219</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>256.3114526082838</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>13.71410396768083</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>106.2375233338002</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>118.9342586165955</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>107.260688661198</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>243.8677788982</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>279.9535789869242</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968106</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>44.83908341485152</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>204.6738100181697</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>58.68323868938133</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>185.0134698969464</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1306,13 +1306,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>100.2698474393481</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>284.8872713732103</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>3.351632718883252</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.355386595322293</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>154.9528280479738</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,7 +1622,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>65.87543334372788</v>
@@ -1661,7 +1661,7 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1670,10 +1670,10 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>178.5831998120856</v>
+        <v>70.89972413601089</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1768,10 @@
         <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
         <v>84.67436304442484</v>
@@ -1783,7 +1783,7 @@
         <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>102.2720913667887</v>
+        <v>78.36539627237318</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574966</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564978</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.5760187316781</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196051</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380024</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667935</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644662</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883875</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541079</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038642</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656596</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -4028,7 +4028,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059243</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529.4866005744618</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="C2" t="n">
-        <v>136.3110990773924</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="D2" t="n">
-        <v>136.3110990773924</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E2" t="n">
-        <v>136.3110990773924</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>123.4570646477742</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>114.3347131761814</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="H2" t="n">
-        <v>114.3347131761814</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>534.8235384748672</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704471</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.9374095968</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.79005602327</v>
+        <v>1870.655869043491</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582687</v>
+        <v>1647.155266602908</v>
       </c>
       <c r="U2" t="n">
-        <v>1657.536724017285</v>
+        <v>1647.155266602908</v>
       </c>
       <c r="V2" t="n">
-        <v>1315.429914720804</v>
+        <v>1647.155266602908</v>
       </c>
       <c r="W2" t="n">
-        <v>1315.429914720804</v>
+        <v>1388.254809422823</v>
       </c>
       <c r="X2" t="n">
-        <v>925.9773096538607</v>
+        <v>998.8022043558801</v>
       </c>
       <c r="Y2" t="n">
-        <v>529.4866005744618</v>
+        <v>602.3114952764813</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>671.4221579801455</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>520.7679275402377</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>390.678960161718</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>254.2324692726057</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>813.5918890426536</v>
       </c>
       <c r="M3" t="n">
-        <v>694.869426624575</v>
+        <v>1327.194567652341</v>
       </c>
       <c r="N3" t="n">
-        <v>1233.128211634668</v>
+        <v>1327.194567652341</v>
       </c>
       <c r="O3" t="n">
-        <v>1749.648494225649</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637617</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.33080581376</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492402</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1421.957032862301</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1191.839786995588</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1002.5327093456</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>823.2184924211068</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.5900847576771</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="C4" t="n">
-        <v>176.5900847576771</v>
+        <v>648.8441619964569</v>
       </c>
       <c r="D4" t="n">
-        <v>176.5900847576771</v>
+        <v>648.8441619964569</v>
       </c>
       <c r="E4" t="n">
-        <v>176.5900847576771</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5900847576771</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>204.9759422931585</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023643</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T4" t="n">
-        <v>633.7824681580506</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="U4" t="n">
-        <v>633.7824681580506</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="V4" t="n">
-        <v>633.7824681580506</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="W4" t="n">
-        <v>633.7824681580506</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="X4" t="n">
-        <v>399.7021459410337</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="Y4" t="n">
-        <v>176.5900847576771</v>
+        <v>819.0492799304677</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1538.930517161387</v>
+        <v>850.7313642447016</v>
       </c>
       <c r="C5" t="n">
-        <v>1145.755015664318</v>
+        <v>850.7313642447016</v>
       </c>
       <c r="D5" t="n">
-        <v>1145.755015664318</v>
+        <v>604.4002744485399</v>
       </c>
       <c r="E5" t="n">
-        <v>743.1714907808623</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F5" t="n">
-        <v>326.2770523108401</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475497</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123376</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760838</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="U5" t="n">
-        <v>1881.037326457869</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="V5" t="n">
-        <v>1538.930517161387</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="W5" t="n">
-        <v>1538.930517161387</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="X5" t="n">
-        <v>1538.930517161387</v>
+        <v>1647.716819035497</v>
       </c>
       <c r="Y5" t="n">
-        <v>1538.930517161387</v>
+        <v>1251.226109956099</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="M6" t="n">
-        <v>1402.159093172765</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182858</v>
+        <v>1985.12881815598</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.33080581376</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492402</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863469</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996756</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467679</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>842.0113338974229</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>502.1287248402983</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>506.4075462870908</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>220.9687545289917</v>
+        <v>736.2090470573153</v>
       </c>
       <c r="V7" t="n">
-        <v>220.9687545289917</v>
+        <v>736.2090470573153</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475497</v>
+        <v>736.2090470573153</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475497</v>
+        <v>502.1287248402983</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>502.1287248402983</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>658.0888411972185</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="C8" t="n">
-        <v>658.0888411972185</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="D8" t="n">
-        <v>658.0888411972185</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="E8" t="n">
-        <v>658.0888411972185</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
         <v>185.6500870090788</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1750.759141037971</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1408.652331741489</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>1408.652331741489</v>
       </c>
       <c r="X8" t="n">
-        <v>1058.583586908615</v>
+        <v>1408.652331741489</v>
       </c>
       <c r="Y8" t="n">
-        <v>1058.583586908615</v>
+        <v>1012.161622662091</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5005,7 +5005,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.4773184619364</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1413.689529456423</v>
+        <v>1467.291089243225</v>
       </c>
       <c r="C11" t="n">
-        <v>1092.310303105547</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="D11" t="n">
-        <v>804.5453825265469</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>473.7581327892852</v>
+        <v>815.1246131550877</v>
       </c>
       <c r="F11" t="n">
-        <v>128.6599694654569</v>
+        <v>470.0264498312595</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>3007.853617698189</v>
       </c>
       <c r="U11" t="n">
-        <v>2954.252057911387</v>
+        <v>3007.853617698189</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.941523761099</v>
+        <v>2737.543083547901</v>
       </c>
       <c r="W11" t="n">
-        <v>2384.73876387558</v>
+        <v>2438.340323662383</v>
       </c>
       <c r="X11" t="n">
-        <v>2067.082433954831</v>
+        <v>2120.683993741633</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742.388000021626</v>
+        <v>1795.989559808428</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.833293963354</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.9551552953888</v>
+        <v>376.4660514052805</v>
       </c>
       <c r="C13" t="n">
-        <v>376.5463125075719</v>
+        <v>376.4660514052805</v>
       </c>
       <c r="D13" t="n">
-        <v>292.7094745562805</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616768</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5197,22 +5197,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581895</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.410653902774</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118227</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1491.323160405091</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1360.303351733834</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1196.380575048262</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="U13" t="n">
-        <v>982.7380584363566</v>
+        <v>1209.194825013984</v>
       </c>
       <c r="V13" t="n">
-        <v>788.5549884033746</v>
+        <v>1015.011754981002</v>
       </c>
       <c r="W13" t="n">
-        <v>788.5549884033746</v>
+        <v>803.4776280583736</v>
       </c>
       <c r="X13" t="n">
-        <v>626.2709413325516</v>
+        <v>641.1935809875506</v>
       </c>
       <c r="Y13" t="n">
-        <v>474.9551552953888</v>
+        <v>489.8777949503879</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.021483962825</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2109.634413445567</v>
+        <v>2034.44914657795</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>1709.754712644745</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.4958349961666</v>
+        <v>593.7970597253333</v>
       </c>
       <c r="C16" t="n">
-        <v>389.0869922083497</v>
+        <v>495.3882169375164</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083497</v>
+        <v>411.551378986225</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027736</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>1099.965602310117</v>
       </c>
       <c r="V16" t="n">
-        <v>963.7574915010651</v>
+        <v>1020.808636378426</v>
       </c>
       <c r="W16" t="n">
-        <v>752.2233645784368</v>
+        <v>1020.808636378426</v>
       </c>
       <c r="X16" t="n">
-        <v>752.2233645784368</v>
+        <v>858.5245893076035</v>
       </c>
       <c r="Y16" t="n">
-        <v>600.907578541274</v>
+        <v>707.2088032704406</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5601,10 +5601,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1084.690231197904</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,37 +5923,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.324157721467</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099307</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803423</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,25 +6227,25 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>662.781010164276</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1156.101301882805</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1795.153563656959</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6385,49 +6385,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6467,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.9731416283548</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>614.2474104019147</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1219.219822695427</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1876.87284331499</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2404.684126952453</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2844.723727844781</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3192.911219976303</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939828</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929704</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.385360640485</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245251</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.031657165253</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597514</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407223</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374173</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>337.0682132920765</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>501.1958531658763</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736109</v>
+        <v>799.1395520791234</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.58316263189</v>
+        <v>1093.981306685316</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600014</v>
+        <v>1256.686073727024</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1376.562239503602</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.10558445183</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250163</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273659</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.314437140069</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045775</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027462</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7026,10 +7026,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,13 +7208,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7254,16 +7254,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M39" t="n">
-        <v>1319.055322752795</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
         <v>1974.833293963354</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,16 +7433,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,19 +7573,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7628,16 +7628,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7691,7 +7691,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,19 +7804,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O46" t="n">
         <v>974.9038003296507</v>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N2" t="n">
-        <v>266.1293161394336</v>
+        <v>647.8084594790912</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>546.9790299115534</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035416</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431186</v>
       </c>
       <c r="P3" t="n">
-        <v>279.7797122508388</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>490.7936748278102</v>
       </c>
       <c r="O5" t="n">
-        <v>188.8202997518133</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>539.097444875315</v>
+        <v>611.1777065035416</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083963</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>183.6305080413525</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>410.5393874591622</v>
       </c>
       <c r="P8" t="n">
-        <v>213.6604073397399</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,19 +8532,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>663.2434089132782</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>457.616862805975</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>412.7428484698906</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9018,10 +9018,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>313.8678003657251</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,7 +9960,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167031</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,7 +10197,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>691.2645480167031</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10902,19 +10902,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>550.6002160777358</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11139,7 +11139,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>335.1420048916687</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.62113372755675</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362794</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>146.8356513025623</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.2282804836946</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>56.55326339781231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>135.8965668094562</v>
+        <v>243.5800424855309</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>89.96914796586331</v>
+        <v>113.8758430602789</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>771971.0348775469</v>
+        <v>771068.7134569065</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>771971.0348775469</v>
+        <v>771068.7134569065</v>
       </c>
     </row>
     <row r="4">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>522963.3164707347</v>
+      </c>
+      <c r="C2" t="n">
+        <v>522963.3164707346</v>
+      </c>
+      <c r="D2" t="n">
         <v>522963.3164707345</v>
       </c>
-      <c r="C2" t="n">
-        <v>522963.3164707347</v>
-      </c>
-      <c r="D2" t="n">
-        <v>522963.3164707344</v>
-      </c>
       <c r="E2" t="n">
-        <v>462141.1679307613</v>
+        <v>462141.1679307611</v>
       </c>
       <c r="F2" t="n">
         <v>462141.1679307611</v>
       </c>
       <c r="G2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.316470735</v>
       </c>
       <c r="H2" t="n">
-        <v>522963.3164707351</v>
+        <v>522963.3164707341</v>
       </c>
       <c r="I2" t="n">
         <v>522963.3164707351</v>
       </c>
       <c r="J2" t="n">
-        <v>522963.3164707348</v>
+        <v>522963.3164707345</v>
       </c>
       <c r="K2" t="n">
         <v>522963.3164707347</v>
       </c>
       <c r="L2" t="n">
-        <v>522963.3164707343</v>
+        <v>522963.3164707347</v>
       </c>
       <c r="M2" t="n">
-        <v>522963.3164707351</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="N2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.3164707352</v>
       </c>
       <c r="O2" t="n">
         <v>522963.3164707349</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340548</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401375</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539693</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962299</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746778</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746778</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74258.85911977006</v>
+        <v>78309.53112718494</v>
       </c>
       <c r="C6" t="n">
-        <v>256463.8074116261</v>
+        <v>252168.1881612397</v>
       </c>
       <c r="D6" t="n">
-        <v>249871.7460719034</v>
+        <v>242135.4568485117</v>
       </c>
       <c r="E6" t="n">
-        <v>184035.2122566685</v>
+        <v>183825.4807099787</v>
       </c>
       <c r="F6" t="n">
-        <v>296157.7737307128</v>
+        <v>295948.0421840232</v>
       </c>
       <c r="G6" t="n">
-        <v>256811.9306267433</v>
+        <v>256811.9306267434</v>
       </c>
       <c r="H6" t="n">
-        <v>304237.2561634254</v>
+        <v>304237.2561634245</v>
       </c>
       <c r="I6" t="n">
         <v>304237.2561634255</v>
       </c>
       <c r="J6" t="n">
-        <v>91195.33856613968</v>
+        <v>97711.6237207127</v>
       </c>
       <c r="K6" t="n">
         <v>297997.487760642</v>
       </c>
       <c r="L6" t="n">
-        <v>242814.8988260205</v>
+        <v>238766.0616155486</v>
       </c>
       <c r="M6" t="n">
-        <v>262036.4267038025</v>
+        <v>260984.7316926141</v>
       </c>
       <c r="N6" t="n">
-        <v>304237.2561634252</v>
+        <v>304237.2561634255</v>
       </c>
       <c r="O6" t="n">
-        <v>276469.5621206541</v>
+        <v>276469.5621206542</v>
       </c>
       <c r="P6" t="n">
         <v>304237.2561634253</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473194</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293129</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924617</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287416</v>
       </c>
       <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506537</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042802</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506537</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>66.82308249484763</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>110.9775920731116</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>161.4998697153998</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>114.0770782788435</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>35.06896540279403</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>126.1011726522502</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>137.7189385972989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>129.0775489699526</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626999</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>132.6819913403963</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>77.9105938223484</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>104.7987338652398</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27862,10 +27862,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>354.0422553959407</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>68.18173237280095</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>120.611093132175</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28743,22 +28743,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29223,7 +29223,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634528666</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,22 +29539,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>30.2722376590126</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683159573</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>86.27291196566483</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,46 +29904,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224687</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254077</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668865</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,20 +30402,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,22 +30645,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.636002634528921</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30876,22 +30876,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N2" t="n">
-        <v>117.0108248016495</v>
+        <v>498.6899681413071</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>456.9186830546352</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="P3" t="n">
-        <v>192.6963474315241</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>341.6751834900261</v>
       </c>
       <c r="O5" t="n">
-        <v>39.25646232771692</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>446.7103228260031</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>90.9429491524636</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>260.9755500350659</v>
       </c>
       <c r="P8" t="n">
-        <v>63.35896009881473</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>570.8562868639664</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>372.2447499518083</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35738,10 +35738,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>221.4806783164132</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565487</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36595,10 +36595,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>449.2589679877754</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,7 +36680,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673912</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039237</v>
+        <v>563.4149484039242</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,7 +36917,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8774259673912</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>406.1035372633754</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>611.0832447409211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238017</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>437.9774494722525</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>82.70543230055108</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>189.5299997092787</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.819954147669</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496196</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529582</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>458.2130940284239</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>249.769892037502</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,22 +37941,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716078</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,13 +38181,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>223.8838015594801</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
